--- a/Documentation/TimeSheets/week9/Huy Nguyen Week 9 Timesheet .xlsx
+++ b/Documentation/TimeSheets/week9/Huy Nguyen Week 9 Timesheet .xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>4:00PM</t>
+  </si>
+  <si>
+    <t>12:00PM</t>
+  </si>
+  <si>
+    <t>Imporve and test robot before meeting</t>
+  </si>
+  <si>
+    <t>Research ant build file</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>Enhance follow track for automation mode</t>
+  </si>
+  <si>
+    <t>1:00PM</t>
+  </si>
+  <si>
+    <t>7:00PM</t>
+  </si>
+  <si>
+    <t>10:00PM</t>
   </si>
 </sst>
 </file>
@@ -707,7 +731,7 @@
   <dimension ref="B1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -769,15 +793,15 @@
       </c>
       <c r="C5" s="8">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>2.5</v>
+        <v>12.5</v>
       </c>
       <c r="D5" s="8">
         <f>IFERROR(IF(C5&lt;=WorkweekHours,C5,WorkweekHours),"")</f>
-        <v>2.5</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8">
         <f>IFERROR(C5-D5, "")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -830,41 +854,71 @@
     </row>
     <row r="9" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13">
         <v>43011</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="13">
+        <v>43011</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F10" s="12">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-    </row>
     <row r="11" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13">
+        <v>43013</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="13">
+        <v>43015</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
@@ -898,7 +952,7 @@
     </row>
   </sheetData>
   <dataValidations count="21">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 D3:E3 F1:XFD5 A2:A1048576 G6:XFD1048576 B7:F14 B18:F1048576 B17:E17" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 D3:E3 F1:XFD5 A2:A1048576 G6:XFD1048576 B17:E17 B18:F1048576 B7:F14" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Time Out in this column under this heading" sqref="E6" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Hours Worked are automatically calculated in this column under this heading" sqref="F6" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Period Start Date in this cell" sqref="B3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>

--- a/Documentation/TimeSheets/week9/Huy Nguyen Week 9 Timesheet .xlsx
+++ b/Documentation/TimeSheets/week9/Huy Nguyen Week 9 Timesheet .xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Adelaide - Source Code\2017-S2-SEP-PG29\Documentation\TimeSheets\week9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\issaclee\Desktop\SEP\2017-S2-SEP-PG29\Documentation\TimeSheets\week9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="576" yWindow="456" windowWidth="20736" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="20740" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" r:id="rId1"/>
@@ -730,22 +730,22 @@
   </sheetPr>
   <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.44140625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="2.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.453125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="2.6328125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="34.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:8" ht="35" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
@@ -756,7 +756,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
@@ -765,7 +765,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="35" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -773,7 +773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B5" s="8">
         <v>12</v>
       </c>
@@ -804,7 +804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="11" t="s">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
@@ -903,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
@@ -920,31 +920,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10"/>
       <c r="C13" s="13"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="14"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="17" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
